--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_11_8.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_11_8.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1372480.582726691</v>
+        <v>-1375286.528781882</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673435</v>
+        <v>603248.493767343</v>
       </c>
     </row>
     <row r="9">
@@ -656,7 +656,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>36.87742160448141</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -665,19 +665,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>414.0588908408161</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>326.7362573623985</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>95.77426866708056</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,28 +704,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>71.73533428546355</v>
       </c>
       <c r="S2" t="n">
-        <v>36.02427153087995</v>
+        <v>180.6759134952028</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>217.6509107473003</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.246145173891</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>19.19368109771514</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -747,16 +747,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>136.6780005204371</v>
+        <v>60.3922949609867</v>
       </c>
       <c r="H3" t="n">
-        <v>105.8079545549728</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>66.48301159802702</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -789,13 +789,13 @@
         <v>159.3214913575833</v>
       </c>
       <c r="T3" t="n">
-        <v>169.6029558348663</v>
+        <v>197.4822295952212</v>
       </c>
       <c r="U3" t="n">
         <v>225.8975980913187</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
         <v>251.6949831609196</v>
@@ -814,10 +814,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>37.61554383626502</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -832,7 +832,7 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>157.2665182564294</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -859,22 +859,22 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>39.44160735593269</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>152.2060744799339</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>225.5616349313748</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>88.66244585529549</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -899,10 +899,10 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>305.9862467351013</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
@@ -911,7 +911,7 @@
         <v>12.9169039459368</v>
       </c>
       <c r="H5" t="n">
-        <v>315.0408840752156</v>
+        <v>163.9776779635755</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -947,19 +947,19 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>212.651863114966</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.1547862223006</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -987,7 +987,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>65.52699321157964</v>
+        <v>65.52699321158184</v>
       </c>
       <c r="H6" t="n">
         <v>99.90681807664345</v>
@@ -1054,7 +1054,7 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>126.5826060252209</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -1066,7 +1066,7 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.9207765545704</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1099,10 +1099,10 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>129.1731816677913</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>205.3658819001186</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -1117,7 +1117,7 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>184.6739744009184</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -1133,25 +1133,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>40.43720988459277</v>
       </c>
       <c r="E8" t="n">
-        <v>240.0095236085208</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>11.54770277295399</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>65.70991267247047</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1187,16 +1187,16 @@
         <v>206.6581849802338</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1230,7 +1230,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I9" t="n">
-        <v>20.22295923705012</v>
+        <v>20.22295923705015</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1297,16 +1297,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>112.4283325648071</v>
       </c>
       <c r="H10" t="n">
-        <v>147.2515091551288</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1336,28 +1336,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T10" t="n">
         <v>220.7486959972119</v>
       </c>
       <c r="U10" t="n">
-        <v>141.9274023048508</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1385,7 +1385,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1430,7 +1430,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>349.2409687174127</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
         <v>369.731100678469</v>
@@ -1534,16 +1534,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>99.97427419833815</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1579,10 +1579,10 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>5.890337106877586</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1607,10 +1607,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206824</v>
       </c>
       <c r="E14" t="n">
         <v>381.9303700722618</v>
@@ -1765,25 +1765,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>60.25690685266444</v>
+        <v>40.53421095546781</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1813,7 +1813,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016461</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
         <v>217.4054503272883</v>
@@ -1822,7 +1822,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
@@ -2002,22 +2002,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>99.97427419833814</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2059,7 +2059,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
-        <v>67.10592483573218</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -2242,22 +2242,22 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>42.71572132711237</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2302,7 +2302,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>181.985564370803</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -2318,7 +2318,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
         <v>354.683041620683</v>
@@ -2333,7 +2333,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H23" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2473,25 +2473,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>96.78074638267616</v>
+        <v>101.6969570046971</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2521,10 +2521,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
         <v>217.4054503272883</v>
@@ -2621,7 +2621,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560542</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="27">
@@ -2716,22 +2716,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,10 +2758,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
         <v>217.4054503272883</v>
@@ -2779,7 +2779,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>192.8396132741332</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2804,10 +2804,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>409.8033385187867</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H29" t="n">
-        <v>283.1540821444138</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695533</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2953,22 +2953,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>20.88994825141584</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2998,13 +2998,13 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>275.330023919727</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3044,7 +3044,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H32" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3095,7 +3095,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560531</v>
       </c>
     </row>
     <row r="33">
@@ -3193,7 +3193,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E34" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545303</v>
       </c>
       <c r="F34" t="n">
         <v>121.1364005308915</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>42.09059921808194</v>
+        <v>42.09059921808195</v>
       </c>
       <c r="S34" t="n">
         <v>156.7416385096049</v>
@@ -3263,7 +3263,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
@@ -3281,7 +3281,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H35" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3430,7 +3430,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E37" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F37" t="n">
         <v>121.1364005308915</v>
@@ -3439,10 +3439,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H37" t="n">
-        <v>116.0100653541845</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I37" t="n">
-        <v>56.98118882652582</v>
+        <v>56.98118882652578</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,13 +3469,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>42.09059921808198</v>
+        <v>42.09059921808193</v>
       </c>
       <c r="S37" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T37" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U37" t="n">
         <v>261.8998268972044</v>
@@ -3484,7 +3484,7 @@
         <v>227.8529958317883</v>
       </c>
       <c r="W37" t="n">
-        <v>262.2383508445513</v>
+        <v>262.2383508445512</v>
       </c>
       <c r="X37" t="n">
         <v>201.4250078969974</v>
@@ -3500,7 +3500,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
@@ -3518,7 +3518,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H38" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3752,7 +3752,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H41" t="n">
         <v>283.1540821444137</v>
@@ -3794,7 +3794,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U41" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
@@ -3904,7 +3904,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E43" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F43" t="n">
         <v>121.1364005308915</v>
@@ -3916,7 +3916,7 @@
         <v>116.0100653541842</v>
       </c>
       <c r="I43" t="n">
-        <v>56.98118882652582</v>
+        <v>56.98118882652581</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,13 +3943,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>42.09059921808198</v>
+        <v>42.09059921808196</v>
       </c>
       <c r="S43" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T43" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U43" t="n">
         <v>261.8998268972044</v>
@@ -3977,7 +3977,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
-        <v>365.2728917710062</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
         <v>354.683041620683</v>
@@ -4040,7 +4040,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784686</v>
       </c>
       <c r="Y44" t="n">
         <v>386.2379386560536</v>
@@ -4304,37 +4304,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1915.83208621388</v>
+        <v>871.5620909107417</v>
       </c>
       <c r="C2" t="n">
-        <v>1546.869569273469</v>
+        <v>502.59957397033</v>
       </c>
       <c r="D2" t="n">
-        <v>1188.603870666718</v>
+        <v>144.3338753635795</v>
       </c>
       <c r="E2" t="n">
-        <v>802.815618068474</v>
+        <v>144.3338753635795</v>
       </c>
       <c r="F2" t="n">
-        <v>795.8701173192705</v>
+        <v>144.3338753635795</v>
       </c>
       <c r="G2" t="n">
-        <v>377.6288134396582</v>
+        <v>144.3338753635795</v>
       </c>
       <c r="H2" t="n">
-        <v>47.5921898412759</v>
+        <v>144.3338753635795</v>
       </c>
       <c r="I2" t="n">
         <v>47.5921898412759</v>
       </c>
       <c r="J2" t="n">
-        <v>140.2766257379405</v>
+        <v>140.2766257379403</v>
       </c>
       <c r="K2" t="n">
-        <v>399.9313734332749</v>
+        <v>399.9313734332745</v>
       </c>
       <c r="L2" t="n">
-        <v>774.3326757349413</v>
+        <v>774.3326757349411</v>
       </c>
       <c r="M2" t="n">
         <v>1207.532809426328</v>
@@ -4352,28 +4352,28 @@
         <v>2379.609492063795</v>
       </c>
       <c r="R2" t="n">
-        <v>2379.609492063795</v>
+        <v>2307.149558442115</v>
       </c>
       <c r="S2" t="n">
-        <v>2343.2213390023</v>
+        <v>2124.648635719687</v>
       </c>
       <c r="T2" t="n">
-        <v>2343.2213390023</v>
+        <v>1904.799230924434</v>
       </c>
       <c r="U2" t="n">
-        <v>2343.2213390023</v>
+        <v>1651.015245900302</v>
       </c>
       <c r="V2" t="n">
-        <v>2343.2213390023</v>
+        <v>1631.627689235943</v>
       </c>
       <c r="W2" t="n">
-        <v>2343.2213390023</v>
+        <v>1631.627689235943</v>
       </c>
       <c r="X2" t="n">
-        <v>2343.2213390023</v>
+        <v>1258.161930974863</v>
       </c>
       <c r="Y2" t="n">
-        <v>1953.082007026488</v>
+        <v>1258.161930974863</v>
       </c>
     </row>
     <row r="3">
@@ -4383,25 +4383,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>921.6869499192045</v>
+        <v>658.3739591012447</v>
       </c>
       <c r="C3" t="n">
-        <v>747.2339206380775</v>
+        <v>483.9209298201177</v>
       </c>
       <c r="D3" t="n">
-        <v>598.2995109768262</v>
+        <v>334.9865201588665</v>
       </c>
       <c r="E3" t="n">
-        <v>439.0620559713707</v>
+        <v>175.749065153411</v>
       </c>
       <c r="F3" t="n">
-        <v>292.5274979982556</v>
+        <v>175.749065153411</v>
       </c>
       <c r="G3" t="n">
-        <v>154.4689116139757</v>
+        <v>114.7467470110002</v>
       </c>
       <c r="H3" t="n">
-        <v>47.5921898412759</v>
+        <v>114.7467470110002</v>
       </c>
       <c r="I3" t="n">
         <v>47.5921898412759</v>
@@ -4413,13 +4413,13 @@
         <v>340.850264997477</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9860664824309</v>
+        <v>713.8701137890728</v>
       </c>
       <c r="M3" t="n">
-        <v>996.2618574529156</v>
+        <v>1201.145904759557</v>
       </c>
       <c r="N3" t="n">
-        <v>1512.141402063478</v>
+        <v>1717.02544937012</v>
       </c>
       <c r="O3" t="n">
         <v>1917.654721881353</v>
@@ -4437,22 +4437,22 @@
         <v>2159.246951654309</v>
       </c>
       <c r="T3" t="n">
-        <v>1987.930834649394</v>
+        <v>1959.769952063177</v>
       </c>
       <c r="U3" t="n">
-        <v>1759.751442637961</v>
+        <v>1731.590560051744</v>
       </c>
       <c r="V3" t="n">
-        <v>1759.751442637961</v>
+        <v>1496.438451820001</v>
       </c>
       <c r="W3" t="n">
-        <v>1505.514085909759</v>
+        <v>1242.2010950918</v>
       </c>
       <c r="X3" t="n">
-        <v>1297.662585704226</v>
+        <v>1034.349594886267</v>
       </c>
       <c r="Y3" t="n">
-        <v>1089.902286939272</v>
+        <v>826.5892961213128</v>
       </c>
     </row>
     <row r="4">
@@ -4462,22 +4462,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>244.4427576116743</v>
+        <v>47.5921898412759</v>
       </c>
       <c r="C4" t="n">
-        <v>206.4472587871642</v>
+        <v>47.5921898412759</v>
       </c>
       <c r="D4" t="n">
-        <v>206.4472587871642</v>
+        <v>47.5921898412759</v>
       </c>
       <c r="E4" t="n">
-        <v>206.4472587871642</v>
+        <v>47.5921898412759</v>
       </c>
       <c r="F4" t="n">
-        <v>206.4472587871642</v>
+        <v>47.5921898412759</v>
       </c>
       <c r="G4" t="n">
-        <v>206.4472587871642</v>
+        <v>47.5921898412759</v>
       </c>
       <c r="H4" t="n">
         <v>47.5921898412759</v>
@@ -4507,31 +4507,31 @@
         <v>619.6747394478398</v>
       </c>
       <c r="Q4" t="n">
-        <v>579.8347320176048</v>
+        <v>619.6747394478398</v>
       </c>
       <c r="R4" t="n">
-        <v>426.091222441914</v>
+        <v>619.6747394478398</v>
       </c>
       <c r="S4" t="n">
-        <v>426.091222441914</v>
+        <v>619.6747394478398</v>
       </c>
       <c r="T4" t="n">
-        <v>426.091222441914</v>
+        <v>391.8347041636229</v>
       </c>
       <c r="U4" t="n">
-        <v>426.091222441914</v>
+        <v>302.2766780471628</v>
       </c>
       <c r="V4" t="n">
-        <v>426.091222441914</v>
+        <v>47.5921898412759</v>
       </c>
       <c r="W4" t="n">
-        <v>426.091222441914</v>
+        <v>47.5921898412759</v>
       </c>
       <c r="X4" t="n">
-        <v>426.091222441914</v>
+        <v>47.5921898412759</v>
       </c>
       <c r="Y4" t="n">
-        <v>426.091222441914</v>
+        <v>47.5921898412759</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1488.368453810657</v>
+        <v>999.1797858325554</v>
       </c>
       <c r="C5" t="n">
-        <v>1488.368453810657</v>
+        <v>999.1797858325554</v>
       </c>
       <c r="D5" t="n">
-        <v>1179.291436906514</v>
+        <v>640.9140872258049</v>
       </c>
       <c r="E5" t="n">
-        <v>793.5031843082696</v>
+        <v>640.9140872258049</v>
       </c>
       <c r="F5" t="n">
-        <v>382.5172795186621</v>
+        <v>229.9281824361973</v>
       </c>
       <c r="G5" t="n">
-        <v>369.4699017954936</v>
+        <v>216.8808047130289</v>
       </c>
       <c r="H5" t="n">
-        <v>51.24678656800307</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I5" t="n">
-        <v>51.24678656800307</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J5" t="n">
-        <v>72.48103656138636</v>
+        <v>72.4810365613864</v>
       </c>
       <c r="K5" t="n">
-        <v>475.9481495814318</v>
+        <v>475.9481495814319</v>
       </c>
       <c r="L5" t="n">
-        <v>1028.761407827631</v>
+        <v>615.2768054226851</v>
       </c>
       <c r="M5" t="n">
-        <v>1660.479218810943</v>
+        <v>1246.994616405997</v>
       </c>
       <c r="N5" t="n">
-        <v>1854.813431702925</v>
+        <v>1659.267837608651</v>
       </c>
       <c r="O5" t="n">
-        <v>2098.040162039264</v>
+        <v>2206.429042375728</v>
       </c>
       <c r="P5" t="n">
-        <v>2527.355208378558</v>
+        <v>2317.163367625255</v>
       </c>
       <c r="Q5" t="n">
-        <v>2562.339328400153</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R5" t="n">
-        <v>2562.339328400153</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S5" t="n">
-        <v>2562.339328400153</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="T5" t="n">
-        <v>2562.339328400153</v>
+        <v>2347.539466667867</v>
       </c>
       <c r="U5" t="n">
-        <v>2562.339328400153</v>
+        <v>2093.847763413018</v>
       </c>
       <c r="V5" t="n">
-        <v>2231.276441056582</v>
+        <v>1762.784876069447</v>
       </c>
       <c r="W5" t="n">
-        <v>1878.507785786468</v>
+        <v>1762.784876069447</v>
       </c>
       <c r="X5" t="n">
-        <v>1878.507785786468</v>
+        <v>1389.319117808367</v>
       </c>
       <c r="Y5" t="n">
-        <v>1488.368453810657</v>
+        <v>999.1797858325554</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>893.4159553857294</v>
+        <v>893.4159553857316</v>
       </c>
       <c r="C6" t="n">
-        <v>718.9629261046024</v>
+        <v>718.9629261046047</v>
       </c>
       <c r="D6" t="n">
-        <v>570.0285164433511</v>
+        <v>570.0285164433534</v>
       </c>
       <c r="E6" t="n">
-        <v>410.7910614378956</v>
+        <v>410.7910614378979</v>
       </c>
       <c r="F6" t="n">
-        <v>264.2565034647806</v>
+        <v>264.2565034647829</v>
       </c>
       <c r="G6" t="n">
         <v>198.067621432882</v>
       </c>
       <c r="H6" t="n">
-        <v>97.15164357768657</v>
+        <v>97.15164357768663</v>
       </c>
       <c r="I6" t="n">
-        <v>51.24678656800307</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J6" t="n">
-        <v>51.24678656800307</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="K6" t="n">
-        <v>118.8546062313601</v>
+        <v>380.675190873813</v>
       </c>
       <c r="L6" t="n">
-        <v>623.2161460974787</v>
+        <v>885.0367307399315</v>
       </c>
       <c r="M6" t="n">
-        <v>1039.321252280626</v>
+        <v>1064.534067094536</v>
       </c>
       <c r="N6" t="n">
-        <v>1673.500236059664</v>
+        <v>1698.713050873575</v>
       </c>
       <c r="O6" t="n">
-        <v>2222.936244812387</v>
+        <v>2115.634618717342</v>
       </c>
       <c r="P6" t="n">
-        <v>2331.625872339685</v>
+        <v>2539.602387198178</v>
       </c>
       <c r="Q6" t="n">
-        <v>2562.339328400153</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R6" t="n">
-        <v>2541.22742880234</v>
+        <v>2541.227428802342</v>
       </c>
       <c r="S6" t="n">
-        <v>2391.760639664975</v>
+        <v>2391.760639664977</v>
       </c>
       <c r="T6" t="n">
-        <v>2194.771343825063</v>
+        <v>2194.771343825065</v>
       </c>
       <c r="U6" t="n">
-        <v>1966.632556336228</v>
+        <v>1966.632556336231</v>
       </c>
       <c r="V6" t="n">
-        <v>1731.480448104486</v>
+        <v>1731.480448104488</v>
       </c>
       <c r="W6" t="n">
-        <v>1477.243091376284</v>
+        <v>1477.243091376286</v>
       </c>
       <c r="X6" t="n">
-        <v>1269.391591170751</v>
+        <v>1269.391591170754</v>
       </c>
       <c r="Y6" t="n">
-        <v>1061.631292405797</v>
+        <v>1061.6312924058</v>
       </c>
     </row>
     <row r="7">
@@ -4699,31 +4699,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>347.7148497799135</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="C7" t="n">
-        <v>219.8536315726197</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="D7" t="n">
-        <v>219.8536315726197</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="E7" t="n">
-        <v>219.8536315726197</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="F7" t="n">
-        <v>219.8536315726197</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="G7" t="n">
-        <v>51.24678656800307</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H7" t="n">
-        <v>51.24678656800307</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I7" t="n">
-        <v>51.24678656800307</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J7" t="n">
-        <v>51.24678656800307</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="K7" t="n">
         <v>152.2947161636129</v>
@@ -4747,28 +4747,28 @@
         <v>1051.181468027348</v>
       </c>
       <c r="R7" t="n">
-        <v>1051.181468027348</v>
+        <v>920.7035067467505</v>
       </c>
       <c r="S7" t="n">
-        <v>1051.181468027348</v>
+        <v>713.2632219991558</v>
       </c>
       <c r="T7" t="n">
-        <v>1051.181468027348</v>
+        <v>713.2632219991558</v>
       </c>
       <c r="U7" t="n">
-        <v>1051.181468027348</v>
+        <v>713.2632219991558</v>
       </c>
       <c r="V7" t="n">
-        <v>796.496979821461</v>
+        <v>458.578733793269</v>
       </c>
       <c r="W7" t="n">
-        <v>796.496979821461</v>
+        <v>458.578733793269</v>
       </c>
       <c r="X7" t="n">
-        <v>568.5074289234436</v>
+        <v>272.0393657115332</v>
       </c>
       <c r="Y7" t="n">
-        <v>347.7148497799135</v>
+        <v>51.24678656800311</v>
       </c>
     </row>
     <row r="8">
@@ -4778,40 +4778,40 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>747.626661887866</v>
+        <v>514.7427041430115</v>
       </c>
       <c r="C8" t="n">
-        <v>378.6641449474543</v>
+        <v>514.7427041430115</v>
       </c>
       <c r="D8" t="n">
-        <v>378.6641449474543</v>
+        <v>473.8970375929177</v>
       </c>
       <c r="E8" t="n">
-        <v>136.2302827166252</v>
+        <v>473.8970375929177</v>
       </c>
       <c r="F8" t="n">
-        <v>129.2847819674217</v>
+        <v>466.9515368437143</v>
       </c>
       <c r="G8" t="n">
-        <v>117.6204357321147</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H8" t="n">
-        <v>117.6204357321147</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I8" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J8" t="n">
-        <v>187.5281822362819</v>
+        <v>187.5281822362817</v>
       </c>
       <c r="K8" t="n">
-        <v>442.5171852816084</v>
+        <v>442.5171852816086</v>
       </c>
       <c r="L8" t="n">
-        <v>795.755353087291</v>
+        <v>795.7553530872917</v>
       </c>
       <c r="M8" t="n">
-        <v>1220.470313923561</v>
+        <v>1220.470313923562</v>
       </c>
       <c r="N8" t="n">
         <v>1656.671415230817</v>
@@ -4835,19 +4835,19 @@
         <v>2228.89447953245</v>
       </c>
       <c r="U8" t="n">
-        <v>2228.89447953245</v>
+        <v>1975.31341879663</v>
       </c>
       <c r="V8" t="n">
-        <v>1897.831592188879</v>
+        <v>1644.250531453059</v>
       </c>
       <c r="W8" t="n">
-        <v>1897.831592188879</v>
+        <v>1291.481876182945</v>
       </c>
       <c r="X8" t="n">
-        <v>1524.365833927799</v>
+        <v>1291.481876182945</v>
       </c>
       <c r="Y8" t="n">
-        <v>1134.226501951988</v>
+        <v>901.3425442071332</v>
       </c>
     </row>
     <row r="9">
@@ -4875,31 +4875,31 @@
         <v>165.443278618252</v>
       </c>
       <c r="H9" t="n">
-        <v>71.67401812057878</v>
+        <v>71.67401812057901</v>
       </c>
       <c r="I9" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J9" t="n">
-        <v>113.5972052500114</v>
+        <v>113.5972052500113</v>
       </c>
       <c r="K9" t="n">
-        <v>298.3188265310614</v>
+        <v>312.4344762351467</v>
       </c>
       <c r="L9" t="n">
-        <v>593.0223835625332</v>
+        <v>607.1380332666183</v>
       </c>
       <c r="M9" t="n">
-        <v>956.2844025217532</v>
+        <v>970.4000522258383</v>
       </c>
       <c r="N9" t="n">
-        <v>1343.569531118698</v>
+        <v>1357.685180822783</v>
       </c>
       <c r="O9" t="n">
-        <v>1884.562538506774</v>
+        <v>1991.864164601822</v>
       </c>
       <c r="P9" t="n">
-        <v>2447.023413292609</v>
+        <v>2239.046898434119</v>
       </c>
       <c r="Q9" t="n">
         <v>2562.339328400155</v>
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>498.0154176992257</v>
+        <v>314.9273982680228</v>
       </c>
       <c r="C10" t="n">
-        <v>498.0154176992257</v>
+        <v>314.9273982680228</v>
       </c>
       <c r="D10" t="n">
-        <v>347.89877828689</v>
+        <v>164.8107588556871</v>
       </c>
       <c r="E10" t="n">
-        <v>199.9856847044969</v>
+        <v>164.8107588556871</v>
       </c>
       <c r="F10" t="n">
-        <v>199.9856847044969</v>
+        <v>164.8107588556871</v>
       </c>
       <c r="G10" t="n">
-        <v>199.9856847044969</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H10" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I10" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J10" t="n">
-        <v>76.71595955312199</v>
+        <v>76.71595955312198</v>
       </c>
       <c r="K10" t="n">
-        <v>248.4064713020476</v>
+        <v>248.4064713020475</v>
       </c>
       <c r="L10" t="n">
-        <v>523.6376499693235</v>
+        <v>523.6376499693233</v>
       </c>
       <c r="M10" t="n">
-        <v>824.2194607096588</v>
+        <v>824.2194607096585</v>
       </c>
       <c r="N10" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O10" t="n">
-        <v>1383.126566999035</v>
+        <v>1383.126566999034</v>
       </c>
       <c r="P10" t="n">
-        <v>1582.113182171024</v>
+        <v>1582.113182171023</v>
       </c>
       <c r="Q10" t="n">
         <v>1636.446120074497</v>
       </c>
       <c r="R10" t="n">
-        <v>1636.446120074497</v>
+        <v>1533.862713590079</v>
       </c>
       <c r="S10" t="n">
-        <v>1636.446120074497</v>
+        <v>1337.23396574994</v>
       </c>
       <c r="T10" t="n">
-        <v>1413.467639269233</v>
+        <v>1114.255484944676</v>
       </c>
       <c r="U10" t="n">
-        <v>1270.106626840091</v>
+        <v>825.1371474485136</v>
       </c>
       <c r="V10" t="n">
-        <v>1015.422138634204</v>
+        <v>825.1371474485136</v>
       </c>
       <c r="W10" t="n">
-        <v>726.0049685972431</v>
+        <v>535.7199774115529</v>
       </c>
       <c r="X10" t="n">
-        <v>498.0154176992257</v>
+        <v>535.7199774115529</v>
       </c>
       <c r="Y10" t="n">
-        <v>498.0154176992257</v>
+        <v>314.9273982680228</v>
       </c>
     </row>
     <row r="11">
@@ -5021,28 +5021,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H11" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
@@ -5078,10 +5078,10 @@
         <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5115,31 +5115,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K12" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L12" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M12" t="n">
-        <v>1670.092171589158</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="N12" t="n">
-        <v>2297.690135143765</v>
+        <v>1702.079034721979</v>
       </c>
       <c r="O12" t="n">
-        <v>2297.690135143765</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P12" t="n">
-        <v>2297.690135143765</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q12" t="n">
-        <v>2530.951795518647</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,22 +5173,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1016.58045691144</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C13" t="n">
-        <v>847.6442739835331</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D13" t="n">
-        <v>697.5276345711974</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E13" t="n">
-        <v>549.6145409888043</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="F13" t="n">
-        <v>402.7245934908939</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="G13" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H13" t="n">
         <v>93.81666304797187</v>
@@ -5227,22 +5227,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>2197.062545487567</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U13" t="n">
-        <v>2191.112710026075</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V13" t="n">
-        <v>1936.428221820188</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W13" t="n">
-        <v>1647.011051783227</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X13" t="n">
-        <v>1419.02150088521</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y13" t="n">
-        <v>1198.22892174168</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="14">
@@ -5276,19 +5276,19 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
         <v>3640.42229106801</v>
@@ -5361,22 +5361,22 @@
         <v>579.1554649516142</v>
       </c>
       <c r="L15" t="n">
-        <v>579.1554649516142</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M15" t="n">
-        <v>1176.533952578166</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N15" t="n">
-        <v>1804.131916132773</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="O15" t="n">
-        <v>1859.536823237711</v>
+        <v>2223.769289033212</v>
       </c>
       <c r="P15" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q15" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,25 +5410,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>768.5380889459568</v>
+        <v>513.8536007400699</v>
       </c>
       <c r="C16" t="n">
-        <v>599.6019060180499</v>
+        <v>513.8536007400699</v>
       </c>
       <c r="D16" t="n">
-        <v>449.4852666057142</v>
+        <v>363.7369613277341</v>
       </c>
       <c r="E16" t="n">
-        <v>301.5721730233211</v>
+        <v>363.7369613277341</v>
       </c>
       <c r="F16" t="n">
-        <v>154.6822255254107</v>
+        <v>216.8470138298237</v>
       </c>
       <c r="G16" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
@@ -5449,16 +5449,16 @@
         <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279801</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580259</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832661</v>
       </c>
       <c r="S16" t="n">
         <v>2197.062545487566</v>
@@ -5470,16 +5470,16 @@
         <v>1688.385853854705</v>
       </c>
       <c r="V16" t="n">
-        <v>1688.385853854705</v>
+        <v>1433.701365648818</v>
       </c>
       <c r="W16" t="n">
-        <v>1398.968683817744</v>
+        <v>1144.284195611857</v>
       </c>
       <c r="X16" t="n">
-        <v>1170.979132919727</v>
+        <v>916.2946447138397</v>
       </c>
       <c r="Y16" t="n">
-        <v>950.1865537761965</v>
+        <v>695.5020655703096</v>
       </c>
     </row>
     <row r="17">
@@ -5507,19 +5507,19 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K17" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
         <v>2206.55866301478</v>
@@ -5528,31 +5528,31 @@
         <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X17" t="n">
         <v>3094.515198591809</v>
@@ -5577,7 +5577,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5586,31 +5586,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J18" t="n">
-        <v>95.58405025273903</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>429.5088224239596</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L18" t="n">
-        <v>924.8344286397182</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="M18" t="n">
-        <v>949.9304447718133</v>
+        <v>840.8417932021785</v>
       </c>
       <c r="N18" t="n">
-        <v>1577.52840832642</v>
+        <v>1468.439756756785</v>
       </c>
       <c r="O18" t="n">
-        <v>2129.438138565707</v>
+        <v>2020.349486996072</v>
       </c>
       <c r="P18" t="n">
-        <v>2553.061288060775</v>
+        <v>2443.97263649114</v>
       </c>
       <c r="Q18" t="n">
         <v>2553.061288060775</v>
@@ -5647,28 +5647,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>700.7543264856228</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C19" t="n">
-        <v>700.7543264856228</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D19" t="n">
-        <v>550.637687073287</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E19" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="F19" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="G19" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J19" t="n">
         <v>174.0526814782957</v>
@@ -5707,16 +5707,16 @@
         <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1620.602091394371</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1331.18492135741</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>1103.195370459393</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y19" t="n">
-        <v>882.4027913158625</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="20">
@@ -5735,34 +5735,34 @@
         <v>1590.547811004713</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H20" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M20" t="n">
         <v>2206.55866301478</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
         <v>3640.42229106801</v>
@@ -5771,7 +5771,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R20" t="n">
         <v>4690.833152398593</v>
@@ -5789,7 +5789,7 @@
         <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
         <v>3094.515198591809</v>
@@ -5826,28 +5826,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>579.1554649516142</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L21" t="n">
-        <v>579.1554649516142</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M21" t="n">
-        <v>1176.533952578166</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="N21" t="n">
-        <v>1804.131916132773</v>
+        <v>1366.386875345992</v>
       </c>
       <c r="O21" t="n">
-        <v>1859.536823237711</v>
+        <v>1918.296605585279</v>
       </c>
       <c r="P21" t="n">
-        <v>2283.159972732779</v>
+        <v>2341.919755080347</v>
       </c>
       <c r="Q21" t="n">
         <v>2516.421633107662</v>
@@ -5884,25 +5884,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>513.8536007400712</v>
+        <v>558.0193492433381</v>
       </c>
       <c r="C22" t="n">
-        <v>513.8536007400712</v>
+        <v>558.0193492433381</v>
       </c>
       <c r="D22" t="n">
-        <v>470.7064074803617</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="E22" t="n">
-        <v>322.7933138979686</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F22" t="n">
-        <v>175.9033664000583</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G22" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
@@ -5950,10 +5950,10 @@
         <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>916.2946447138411</v>
+        <v>960.4603932171079</v>
       </c>
       <c r="Y22" t="n">
-        <v>695.5020655703109</v>
+        <v>739.6678140735778</v>
       </c>
     </row>
     <row r="23">
@@ -5969,16 +5969,16 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H23" t="n">
         <v>93.81666304797187</v>
@@ -6002,7 +6002,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6066,28 +6066,28 @@
         <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>245.2306927803937</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K24" t="n">
-        <v>579.1554649516142</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L24" t="n">
-        <v>1074.481071167373</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="M24" t="n">
-        <v>1140.291933891999</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N24" t="n">
-        <v>1767.889897446606</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O24" t="n">
-        <v>2319.799627685893</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P24" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q24" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,22 +6121,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>945.402603663004</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>847.6442739835331</v>
+        <v>411.1294017454277</v>
       </c>
       <c r="D25" t="n">
-        <v>697.5276345711974</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="E25" t="n">
-        <v>549.6145409888043</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F25" t="n">
-        <v>402.7245934908939</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G25" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H25" t="n">
         <v>93.81666304797187</v>
@@ -6169,28 +6169,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1938.286391947399</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1683.601903741512</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1394.184733704551</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>1166.195182806534</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>945.402603663004</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6212,7 +6212,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G26" t="n">
         <v>379.8308874362686</v>
@@ -6221,25 +6221,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
@@ -6260,13 +6260,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6300,16 +6300,16 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L27" t="n">
-        <v>245.2306927803937</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="M27" t="n">
         <v>680.0291294438176</v>
@@ -6358,25 +6358,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>789.7592298206043</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C28" t="n">
-        <v>620.8230468926974</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D28" t="n">
-        <v>470.7064074803617</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E28" t="n">
-        <v>322.7933138979686</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F28" t="n">
-        <v>175.9033664000583</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G28" t="n">
-        <v>175.9033664000583</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
@@ -6406,28 +6406,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1938.286391947399</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1683.601903741512</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1394.184733704551</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>1166.195182806534</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>971.4076946508441</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="29">
@@ -6440,7 +6440,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
         <v>1590.547811004713</v>
@@ -6449,16 +6449,16 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
         <v>378.1925803111715</v>
@@ -6467,43 +6467,43 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332389</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014781</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355939</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398595</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6525,7 +6525,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F30" t="n">
         <v>314.2396613568978</v>
@@ -6534,28 +6534,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273908</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J30" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K30" t="n">
-        <v>579.1554649516144</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L30" t="n">
-        <v>1074.481071167373</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="M30" t="n">
-        <v>1074.481071167373</v>
+        <v>1103.652278938886</v>
       </c>
       <c r="N30" t="n">
-        <v>1702.07903472198</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O30" t="n">
-        <v>2253.988764961267</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P30" t="n">
         <v>2283.159972732779</v>
@@ -6595,28 +6595,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>707.672526468518</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C31" t="n">
-        <v>538.7363435406111</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D31" t="n">
-        <v>388.6197041282754</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E31" t="n">
-        <v>240.7066105458823</v>
+        <v>197.0043242297712</v>
       </c>
       <c r="F31" t="n">
-        <v>93.81666304797191</v>
+        <v>197.0043242297712</v>
       </c>
       <c r="G31" t="n">
-        <v>93.81666304797191</v>
+        <v>197.0043242297712</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797191</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J31" t="n">
         <v>174.0526814782957</v>
@@ -6646,25 +6646,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>2160.315914855604</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1882.204779583153</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1627.520291377266</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1338.103121340305</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>1110.113570442288</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>889.3209912987577</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="32">
@@ -6680,16 +6680,16 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797187</v>
@@ -6698,19 +6698,19 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
         <v>3640.42229106801</v>
@@ -6780,22 +6780,22 @@
         <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>579.1554649516142</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L33" t="n">
-        <v>1074.481071167373</v>
+        <v>740.5562989961525</v>
       </c>
       <c r="M33" t="n">
-        <v>1671.859558793925</v>
+        <v>1337.934786622704</v>
       </c>
       <c r="N33" t="n">
-        <v>2283.159972732779</v>
+        <v>1965.532750177311</v>
       </c>
       <c r="O33" t="n">
-        <v>2283.159972732779</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P33" t="n">
-        <v>2283.159972732779</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q33" t="n">
         <v>2516.421633107662</v>
@@ -6832,22 +6832,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>926.9575315319324</v>
+        <v>926.957531531933</v>
       </c>
       <c r="C34" t="n">
-        <v>782.5512955656818</v>
+        <v>782.5512955656824</v>
       </c>
       <c r="D34" t="n">
-        <v>656.9646031150024</v>
+        <v>656.964603115003</v>
       </c>
       <c r="E34" t="n">
-        <v>533.5814564942656</v>
+        <v>533.5814564942654</v>
       </c>
       <c r="F34" t="n">
-        <v>411.2214559580116</v>
+        <v>411.2214559580113</v>
       </c>
       <c r="G34" t="n">
-        <v>268.5553036345475</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H34" t="n">
         <v>151.373419438402</v>
@@ -6856,13 +6856,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>198.0944824954149</v>
+        <v>198.094482495415</v>
       </c>
       <c r="K34" t="n">
-        <v>483.8255460380728</v>
+        <v>483.825546038073</v>
       </c>
       <c r="L34" t="n">
-        <v>898.2659412311323</v>
+        <v>898.2659412311325</v>
       </c>
       <c r="M34" t="n">
         <v>1344.317444979286</v>
@@ -6880,10 +6880,10 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R34" t="n">
-        <v>2596.781734931273</v>
+        <v>2596.781734931274</v>
       </c>
       <c r="S34" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T34" t="n">
         <v>2243.385329532432</v>
@@ -6892,7 +6892,7 @@
         <v>1978.840049838286</v>
       </c>
       <c r="V34" t="n">
-        <v>1748.685508594055</v>
+        <v>1748.685508594056</v>
       </c>
       <c r="W34" t="n">
         <v>1483.798285518751</v>
@@ -6917,16 +6917,16 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H35" t="n">
         <v>93.81666304797187</v>
@@ -6935,19 +6935,19 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O35" t="n">
         <v>3640.42229106801</v>
@@ -7011,31 +7011,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>579.1554649516142</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L36" t="n">
-        <v>1074.481071167373</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M36" t="n">
-        <v>1074.481071167373</v>
+        <v>1336.167399417937</v>
       </c>
       <c r="N36" t="n">
-        <v>1344.266747951538</v>
+        <v>1963.765362972544</v>
       </c>
       <c r="O36" t="n">
-        <v>1896.176478190825</v>
+        <v>2515.675093211831</v>
       </c>
       <c r="P36" t="n">
-        <v>2319.799627685893</v>
+        <v>2515.675093211831</v>
       </c>
       <c r="Q36" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,22 +7069,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>926.9575315319328</v>
+        <v>926.9575315319323</v>
       </c>
       <c r="C37" t="n">
-        <v>782.5512955656822</v>
+        <v>782.5512955656817</v>
       </c>
       <c r="D37" t="n">
-        <v>656.9646031150027</v>
+        <v>656.9646031150023</v>
       </c>
       <c r="E37" t="n">
-        <v>533.5814564942658</v>
+        <v>533.5814564942656</v>
       </c>
       <c r="F37" t="n">
-        <v>411.2214559580117</v>
+        <v>411.2214559580116</v>
       </c>
       <c r="G37" t="n">
-        <v>268.555303634548</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H37" t="n">
         <v>151.373419438402</v>
@@ -7093,13 +7093,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>198.094482495415</v>
+        <v>198.0944824954147</v>
       </c>
       <c r="K37" t="n">
-        <v>483.825546038073</v>
+        <v>483.8255460380726</v>
       </c>
       <c r="L37" t="n">
-        <v>898.2659412311325</v>
+        <v>898.265941231132</v>
       </c>
       <c r="M37" t="n">
         <v>1344.317444979286</v>
@@ -7129,7 +7129,7 @@
         <v>1978.840049838286</v>
       </c>
       <c r="V37" t="n">
-        <v>1748.685508594056</v>
+        <v>1748.685508594055</v>
       </c>
       <c r="W37" t="n">
         <v>1483.798285518751</v>
@@ -7154,16 +7154,16 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
@@ -7248,25 +7248,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K39" t="n">
-        <v>579.1554649516142</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L39" t="n">
-        <v>1074.481071167373</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M39" t="n">
-        <v>1103.652278938886</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="N39" t="n">
-        <v>1731.250242493492</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O39" t="n">
-        <v>2283.159972732779</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P39" t="n">
         <v>2283.159972732779</v>
@@ -7306,19 +7306,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>926.957531531932</v>
+        <v>926.9575315319323</v>
       </c>
       <c r="C40" t="n">
-        <v>782.5512955656814</v>
+        <v>782.5512955656817</v>
       </c>
       <c r="D40" t="n">
-        <v>656.9646031150019</v>
+        <v>656.9646031150022</v>
       </c>
       <c r="E40" t="n">
-        <v>533.581456494265</v>
+        <v>533.5814564942654</v>
       </c>
       <c r="F40" t="n">
-        <v>411.2214559580109</v>
+        <v>411.2214559580112</v>
       </c>
       <c r="G40" t="n">
         <v>268.5553036345477</v>
@@ -7333,13 +7333,13 @@
         <v>198.094482495415</v>
       </c>
       <c r="K40" t="n">
-        <v>483.8255460380729</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L40" t="n">
-        <v>898.2659412311327</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M40" t="n">
-        <v>1344.317444979287</v>
+        <v>1344.317444979286</v>
       </c>
       <c r="N40" t="n">
         <v>1785.769117656414</v>
@@ -7351,7 +7351,7 @@
         <v>2496.057455973196</v>
       </c>
       <c r="Q40" t="n">
-        <v>2639.297491717215</v>
+        <v>2639.297491717214</v>
       </c>
       <c r="R40" t="n">
         <v>2596.781734931273</v>
@@ -7360,7 +7360,7 @@
         <v>2438.456847547834</v>
       </c>
       <c r="T40" t="n">
-        <v>2243.385329532432</v>
+        <v>2243.385329532431</v>
       </c>
       <c r="U40" t="n">
         <v>1978.840049838285</v>
@@ -7372,10 +7372,10 @@
         <v>1483.798285518751</v>
       </c>
       <c r="X40" t="n">
-        <v>1280.338681582389</v>
+        <v>1280.33868158239</v>
       </c>
       <c r="Y40" t="n">
-        <v>1084.076049400515</v>
+        <v>1084.076049400516</v>
       </c>
     </row>
     <row r="41">
@@ -7391,13 +7391,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G41" t="n">
         <v>379.8308874362686</v>
@@ -7445,13 +7445,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7485,25 +7485,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K42" t="n">
-        <v>562.8579153358621</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L42" t="n">
-        <v>1058.183521551621</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="M42" t="n">
-        <v>1655.562009178173</v>
+        <v>1174.766565373399</v>
       </c>
       <c r="N42" t="n">
-        <v>2283.159972732779</v>
+        <v>1802.364528928006</v>
       </c>
       <c r="O42" t="n">
-        <v>2283.159972732779</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P42" t="n">
         <v>2283.159972732779</v>
@@ -7570,10 +7570,10 @@
         <v>198.094482495415</v>
       </c>
       <c r="K43" t="n">
-        <v>483.8255460380728</v>
+        <v>483.8255460380733</v>
       </c>
       <c r="L43" t="n">
-        <v>898.2659412311323</v>
+        <v>898.2659412311327</v>
       </c>
       <c r="M43" t="n">
         <v>1344.317444979286</v>
@@ -7585,16 +7585,16 @@
         <v>2179.340199382519</v>
       </c>
       <c r="P43" t="n">
-        <v>2496.057455973196</v>
+        <v>2496.057455973197</v>
       </c>
       <c r="Q43" t="n">
         <v>2639.297491717215</v>
       </c>
       <c r="R43" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931273</v>
       </c>
       <c r="S43" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T43" t="n">
         <v>2243.385329532432</v>
@@ -7622,7 +7622,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C44" t="n">
         <v>1948.813509611463</v>
@@ -7640,19 +7640,19 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M44" t="n">
         <v>2206.558663014778</v>
@@ -7667,31 +7667,31 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R44" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S44" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T44" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="45">
@@ -7719,34 +7719,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H45" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273902</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
-        <v>95.58405025273902</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K45" t="n">
-        <v>429.5088224239596</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L45" t="n">
-        <v>429.5088224239596</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M45" t="n">
-        <v>1026.887310050512</v>
+        <v>1336.167399417937</v>
       </c>
       <c r="N45" t="n">
-        <v>1654.485273605118</v>
+        <v>1963.765362972544</v>
       </c>
       <c r="O45" t="n">
-        <v>1896.176478190825</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P45" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q45" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,37 +7780,37 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>926.9575315319324</v>
+        <v>926.9575315319322</v>
       </c>
       <c r="C46" t="n">
-        <v>782.5512955656818</v>
+        <v>782.5512955656816</v>
       </c>
       <c r="D46" t="n">
-        <v>656.9646031150023</v>
+        <v>656.9646031150021</v>
       </c>
       <c r="E46" t="n">
-        <v>533.5814564942655</v>
+        <v>533.5814564942652</v>
       </c>
       <c r="F46" t="n">
-        <v>411.2214559580113</v>
+        <v>411.2214559580111</v>
       </c>
       <c r="G46" t="n">
-        <v>268.5553036345474</v>
+        <v>268.5553036345473</v>
       </c>
       <c r="H46" t="n">
         <v>151.373419438402</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
         <v>198.094482495415</v>
       </c>
       <c r="K46" t="n">
-        <v>483.8255460380728</v>
+        <v>483.8255460380729</v>
       </c>
       <c r="L46" t="n">
-        <v>898.2659412311323</v>
+        <v>898.2659412311318</v>
       </c>
       <c r="M46" t="n">
         <v>1344.317444979286</v>
@@ -7825,16 +7825,16 @@
         <v>2496.057455973196</v>
       </c>
       <c r="Q46" t="n">
-        <v>2639.297491717215</v>
+        <v>2639.297491717214</v>
       </c>
       <c r="R46" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931273</v>
       </c>
       <c r="S46" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T46" t="n">
-        <v>2243.385329532432</v>
+        <v>2243.385329532431</v>
       </c>
       <c r="U46" t="n">
         <v>1978.840049838286</v>
@@ -7843,10 +7843,10 @@
         <v>1748.685508594055</v>
       </c>
       <c r="W46" t="n">
-        <v>1483.798285518751</v>
+        <v>1483.79828551875</v>
       </c>
       <c r="X46" t="n">
-        <v>1280.33868158239</v>
+        <v>1280.338681582389</v>
       </c>
       <c r="Y46" t="n">
         <v>1084.076049400516</v>
@@ -8061,7 +8061,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>163.886762165437</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
         <v>465.7050637499999</v>
@@ -8070,7 +8070,7 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O3" t="n">
-        <v>393.8623192767295</v>
+        <v>186.9087361387074</v>
       </c>
       <c r="P3" t="n">
         <v>318.4627686399372</v>
@@ -8219,22 +8219,22 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L5" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
         <v>449.5135334928325</v>
       </c>
       <c r="N5" t="n">
-        <v>0</v>
+        <v>220.1404124350214</v>
       </c>
       <c r="O5" t="n">
-        <v>73.79566163573637</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P5" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R5" t="n">
         <v>65.71641987298243</v>
@@ -8295,25 +8295,25 @@
         <v>6.233205181928369</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>238.9977473015578</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>439.9214566933063</v>
+        <v>439.9214566933068</v>
       </c>
       <c r="O6" t="n">
-        <v>393.8623192767295</v>
+        <v>260.0093486616223</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8532,7 +8532,7 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>14.25823202432872</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -8544,16 +8544,16 @@
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>211.0329012241554</v>
+        <v>305.1601501039159</v>
       </c>
       <c r="P9" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
-        <v>20.93778120154988</v>
+        <v>20.93778120154991</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -9170,7 +9170,7 @@
         <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>1.364242052659392e-12</v>
       </c>
       <c r="N17" t="n">
         <v>0</v>
@@ -9650,10 +9650,10 @@
         <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="Q23" t="n">
         <v>0</v>
@@ -9881,7 +9881,7 @@
         <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="N26" t="n">
         <v>0</v>
@@ -10115,7 +10115,7 @@
         <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>2.387423592153937e-12</v>
+        <v>0</v>
       </c>
       <c r="M29" t="n">
         <v>0</v>
@@ -22544,7 +22544,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>345.8564200589992</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -22553,19 +22553,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>414.0588908408161</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>326.7362573623985</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>66.74822199164502</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22601,13 +22601,13 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.246145173891</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -22677,7 +22677,7 @@
         <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>27.87927376035489</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
@@ -22705,7 +22705,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>129.6312772623628</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -22714,7 +22714,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>167.4330325613104</v>
@@ -22723,10 +22723,10 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>138.6714930639232</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>53.91234155828187</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -22753,13 +22753,13 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>214.293107035759</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2885958948282</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -22771,7 +22771,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -23318,7 +23318,7 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -23422,19 +23422,19 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>65.54986409393069</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856724</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23467,10 +23467,10 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>280.2941372823665</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23653,25 +23653,25 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>105.2672314396044</v>
+        <v>124.989927336801</v>
       </c>
       <c r="H16" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23710,7 +23710,7 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23890,22 +23890,22 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>46.45968844823103</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
         <v>81.26583631856553</v>
@@ -23947,7 +23947,7 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>185.0317184880958</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -24130,22 +24130,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>105.8997516911</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24190,7 +24190,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>43.72409101823419</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24361,25 +24361,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>70.46607471595168</v>
+        <v>65.54986409393075</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
         <v>81.26583631856553</v>
@@ -24409,10 +24409,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24604,22 +24604,22 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,10 +24646,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24667,7 +24667,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>25.74504007796162</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24841,22 +24841,22 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>119.4047645948081</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24886,13 +24886,13 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>10.85445046951713</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -25327,7 +25327,7 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>-3.126388037344441e-13</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>1257786.613134646</v>
+        <v>1257786.613134645</v>
       </c>
     </row>
     <row r="10">
@@ -26311,13 +26311,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>135401.7127154574</v>
+        <v>135401.7127154575</v>
       </c>
       <c r="C2" t="n">
         <v>164208.3539728567</v>
       </c>
       <c r="D2" t="n">
-        <v>164208.3539728567</v>
+        <v>164208.3539728568</v>
       </c>
       <c r="E2" t="n">
         <v>161429.3199380012</v>
@@ -26326,25 +26326,25 @@
         <v>161429.3199380012</v>
       </c>
       <c r="G2" t="n">
-        <v>161429.3199380012</v>
+        <v>161429.3199380013</v>
       </c>
       <c r="H2" t="n">
-        <v>161429.3199380012</v>
+        <v>161429.3199380013</v>
       </c>
       <c r="I2" t="n">
         <v>161429.3199380012</v>
       </c>
       <c r="J2" t="n">
+        <v>161429.3199380013</v>
+      </c>
+      <c r="K2" t="n">
         <v>161429.3199380012</v>
       </c>
-      <c r="K2" t="n">
-        <v>161429.3199380013</v>
-      </c>
       <c r="L2" t="n">
+        <v>164208.3539728568</v>
+      </c>
+      <c r="M2" t="n">
         <v>164208.3539728567</v>
-      </c>
-      <c r="M2" t="n">
-        <v>164208.3539728568</v>
       </c>
       <c r="N2" t="n">
         <v>164208.3539728567</v>
@@ -26366,13 +26366,13 @@
         <v>497513.9407656186</v>
       </c>
       <c r="C3" t="n">
-        <v>273432.6815691264</v>
+        <v>273432.6815691266</v>
       </c>
       <c r="D3" t="n">
-        <v>291685.0095230268</v>
+        <v>291685.0095230265</v>
       </c>
       <c r="E3" t="n">
-        <v>507485.4416245457</v>
+        <v>507485.4416245459</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26390,10 +26390,10 @@
         <v>155652.6364853849</v>
       </c>
       <c r="K3" t="n">
-        <v>11757.20312955409</v>
+        <v>11757.20312955406</v>
       </c>
       <c r="L3" t="n">
-        <v>19427.71799363182</v>
+        <v>19427.7179936318</v>
       </c>
       <c r="M3" t="n">
         <v>132607.2937289267</v>
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>178690.4677814932</v>
+        <v>178690.4677814933</v>
       </c>
       <c r="C4" t="n">
-        <v>198312.6346601524</v>
+        <v>198312.6346601523</v>
       </c>
       <c r="D4" t="n">
-        <v>133113.8635467443</v>
+        <v>133113.8635467444</v>
       </c>
       <c r="E4" t="n">
         <v>7507.368461719667</v>
       </c>
       <c r="F4" t="n">
-        <v>7507.368461719667</v>
+        <v>7507.368461719668</v>
       </c>
       <c r="G4" t="n">
-        <v>7507.368461719667</v>
+        <v>7507.368461719697</v>
       </c>
       <c r="H4" t="n">
         <v>7507.368461719667</v>
       </c>
       <c r="I4" t="n">
-        <v>7507.368461719692</v>
+        <v>7507.3684617197</v>
       </c>
       <c r="J4" t="n">
-        <v>7507.368461719642</v>
+        <v>7507.368461719678</v>
       </c>
       <c r="K4" t="n">
-        <v>7507.36846171972</v>
+        <v>7507.36846171966</v>
       </c>
       <c r="L4" t="n">
         <v>15498.22772481317</v>
       </c>
       <c r="M4" t="n">
+        <v>15498.22772481317</v>
+      </c>
+      <c r="N4" t="n">
         <v>15498.22772481314</v>
       </c>
-      <c r="N4" t="n">
-        <v>15498.22772481315</v>
-      </c>
       <c r="O4" t="n">
-        <v>15498.22772481314</v>
+        <v>15498.22772481316</v>
       </c>
       <c r="P4" t="n">
-        <v>15498.2277248132</v>
+        <v>15498.22772481316</v>
       </c>
     </row>
     <row r="5">
@@ -26470,7 +26470,7 @@
         <v>76542.73383253263</v>
       </c>
       <c r="C5" t="n">
-        <v>85512.93677905214</v>
+        <v>85512.93677905218</v>
       </c>
       <c r="D5" t="n">
         <v>92937.7724398447</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-617345.429664187</v>
+        <v>-617705.5126799045</v>
       </c>
       <c r="C6" t="n">
-        <v>-393049.8990354743</v>
+        <v>-393049.8990354744</v>
       </c>
       <c r="D6" t="n">
-        <v>-353528.2915367591</v>
+        <v>-353528.2915367588</v>
       </c>
       <c r="E6" t="n">
-        <v>-454686.0199721713</v>
+        <v>-454720.7578976072</v>
       </c>
       <c r="F6" t="n">
-        <v>52799.4216523744</v>
+        <v>52764.68372693873</v>
       </c>
       <c r="G6" t="n">
-        <v>52799.42165237443</v>
+        <v>52764.68372693875</v>
       </c>
       <c r="H6" t="n">
-        <v>52799.42165237443</v>
+        <v>52764.68372693882</v>
       </c>
       <c r="I6" t="n">
-        <v>52799.42165237443</v>
+        <v>52764.6837269387</v>
       </c>
       <c r="J6" t="n">
-        <v>-102853.2148330104</v>
+        <v>-102887.9527584461</v>
       </c>
       <c r="K6" t="n">
-        <v>41042.21852282035</v>
+        <v>41007.48059738473</v>
       </c>
       <c r="L6" t="n">
-        <v>26118.29240049636</v>
+        <v>26118.29240049642</v>
       </c>
       <c r="M6" t="n">
-        <v>-87061.28333479846</v>
+        <v>-87061.28333479851</v>
       </c>
       <c r="N6" t="n">
+        <v>45546.01039412816</v>
+      </c>
+      <c r="O6" t="n">
+        <v>45546.01039412821</v>
+      </c>
+      <c r="P6" t="n">
         <v>45546.01039412813</v>
-      </c>
-      <c r="O6" t="n">
-        <v>45546.01039412824</v>
-      </c>
-      <c r="P6" t="n">
-        <v>45546.01039412808</v>
       </c>
     </row>
   </sheetData>
@@ -26716,13 +26716,13 @@
         <v>24.28464749203975</v>
       </c>
       <c r="M2" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="N2" t="n">
         <v>24.28464749203971</v>
       </c>
       <c r="O2" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="P2" t="n">
         <v>24.28464749203972</v>
@@ -26741,7 +26741,7 @@
         <v>593.4761003380651</v>
       </c>
       <c r="D3" t="n">
-        <v>934.0648921175393</v>
+        <v>934.0648921175391</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26790,10 +26790,10 @@
         <v>594.9023730159487</v>
       </c>
       <c r="C4" t="n">
-        <v>640.5848321000383</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="D4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26802,7 +26802,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="H4" t="n">
         <v>1172.708288099648</v>
@@ -26814,7 +26814,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="K4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="L4" t="n">
         <v>1172.708288099648</v>
@@ -26935,7 +26935,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>24.28464749203978</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26963,10 +26963,10 @@
         <v>284.0692401012327</v>
       </c>
       <c r="D3" t="n">
-        <v>340.5887917794743</v>
+        <v>340.588791779474</v>
       </c>
       <c r="E3" t="n">
-        <v>433.9106082241344</v>
+        <v>433.9106082241346</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27012,13 +27012,13 @@
         <v>594.9023730159487</v>
       </c>
       <c r="C4" t="n">
-        <v>45.6824590840896</v>
+        <v>45.68245908409019</v>
       </c>
       <c r="D4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>532.1234559996096</v>
+        <v>532.1234559996095</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27036,13 +27036,13 @@
         <v>594.9023730159487</v>
       </c>
       <c r="K4" t="n">
-        <v>45.68245908409006</v>
+        <v>45.68245908408994</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996096</v>
+        <v>532.1234559996095</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27258,13 +27258,13 @@
         <v>594.9023730159487</v>
       </c>
       <c r="K4" t="n">
-        <v>45.6824590840896</v>
+        <v>45.68245908409019</v>
       </c>
       <c r="L4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996096</v>
+        <v>532.1234559996095</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27388,7 +27388,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -27397,7 +27397,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>162.5224906587256</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27424,28 +27424,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>71.73533428546355</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>144.6516419643229</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>217.6509107473003</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>308.5585773724198</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27467,16 +27467,16 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>76.28570555945038</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>105.8079545549728</v>
       </c>
       <c r="I3" t="n">
-        <v>66.48301159802702</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27515,7 +27515,7 @@
         <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
         <v>0</v>
@@ -27534,7 +27534,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27546,19 +27546,19 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>157.2665182564294</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>138.6714930639232</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>53.91234155828187</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27579,22 +27579,22 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>39.44160735593269</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>152.2060744799339</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>214.293107035759</v>
       </c>
       <c r="T4" t="n">
-        <v>225.5616349313748</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>197.6261500395327</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
@@ -27603,7 +27603,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27619,10 +27619,10 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>48.69679488558165</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -27631,7 +27631,7 @@
         <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>151.0632061116401</v>
       </c>
       <c r="I5" t="n">
         <v>118.4960408938903</v>
@@ -27667,19 +27667,19 @@
         <v>154.6528871281402</v>
       </c>
       <c r="T5" t="n">
-        <v>212.651863114966</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.1547862223006</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27707,7 +27707,7 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>70.53999045279063</v>
+        <v>70.53999045278843</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -27774,7 +27774,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>40.66421507340698</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
@@ -27786,7 +27786,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.9207765545704</v>
       </c>
       <c r="H7" t="n">
         <v>152.7120966692326</v>
@@ -27819,10 +27819,10 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>129.1731816677913</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>205.3658819001186</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>223.3729047207587</v>
@@ -27837,7 +27837,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>41.03568098811877</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -27853,25 +27853,25 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>314.2458317360902</v>
       </c>
       <c r="E8" t="n">
-        <v>141.920846463741</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>301.0185525624054</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27907,16 +27907,16 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28017,16 +28017,16 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>166.3066000448042</v>
+        <v>53.87826747999708</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I10" t="n">
         <v>104.7965952039006</v>
@@ -28056,28 +28056,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>144.2997518163498</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28105,7 +28105,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -28327,10 +28327,10 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -29038,7 +29038,7 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
@@ -29053,7 +29053,7 @@
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -29764,7 +29764,7 @@
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -29815,7 +29815,7 @@
         <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
     </row>
     <row r="33">
@@ -29983,7 +29983,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -30001,7 +30001,7 @@
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="C37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="D37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="E37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="F37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="G37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="H37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="I37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="J37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="K37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="L37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="M37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="N37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="O37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="P37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="Q37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="R37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="S37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="T37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="U37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="V37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="W37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="X37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="Y37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
     </row>
     <row r="38">
@@ -30220,7 +30220,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -30238,7 +30238,7 @@
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -30472,7 +30472,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -30514,7 +30514,7 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>2.557953848736361e-13</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="C43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="D43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="E43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="F43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="G43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="H43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="I43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="J43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="K43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="L43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="M43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="N43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="O43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="P43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Q43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="R43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="S43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="T43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="U43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="V43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="W43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="X43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Y43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
     </row>
     <row r="44">
@@ -30697,7 +30697,7 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>1.364242052659392e-12</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
@@ -30760,7 +30760,7 @@
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -31513,46 +31513,46 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.75503474218106</v>
+        <v>3.755034742181059</v>
       </c>
       <c r="H8" t="n">
-        <v>38.45624955336179</v>
+        <v>38.45624955336178</v>
       </c>
       <c r="I8" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J8" t="n">
-        <v>318.70387994919</v>
+        <v>318.7038799491899</v>
       </c>
       <c r="K8" t="n">
-        <v>477.6545005857143</v>
+        <v>477.6545005857142</v>
       </c>
       <c r="L8" t="n">
-        <v>592.5726450767381</v>
+        <v>592.5726450767379</v>
       </c>
       <c r="M8" t="n">
-        <v>659.3512441730005</v>
+        <v>659.3512441730003</v>
       </c>
       <c r="N8" t="n">
-        <v>670.0202366342224</v>
+        <v>670.0202366342223</v>
       </c>
       <c r="O8" t="n">
-        <v>632.6811099166596</v>
+        <v>632.6811099166594</v>
       </c>
       <c r="P8" t="n">
-        <v>539.9786897190645</v>
+        <v>539.9786897190644</v>
       </c>
       <c r="Q8" t="n">
-        <v>405.5015080147052</v>
+        <v>405.5015080147051</v>
       </c>
       <c r="R8" t="n">
-        <v>235.8772011235312</v>
+        <v>235.8772011235311</v>
       </c>
       <c r="S8" t="n">
-        <v>85.56785418745099</v>
+        <v>85.56785418745096</v>
       </c>
       <c r="T8" t="n">
-        <v>16.4376645838976</v>
+        <v>16.43766458389759</v>
       </c>
       <c r="U8" t="n">
         <v>0.3004027793744847</v>
@@ -31595,10 +31595,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H9" t="n">
-        <v>19.40387634380021</v>
+        <v>19.4038763438002</v>
       </c>
       <c r="I9" t="n">
-        <v>69.17367361436496</v>
+        <v>69.17367361436493</v>
       </c>
       <c r="J9" t="n">
         <v>189.8178475575841</v>
@@ -31607,34 +31607,34 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L9" t="n">
-        <v>436.2347404177244</v>
+        <v>436.2347404177243</v>
       </c>
       <c r="M9" t="n">
-        <v>509.0653662040589</v>
+        <v>509.0653662040588</v>
       </c>
       <c r="N9" t="n">
-        <v>522.5388116762073</v>
+        <v>522.5388116762072</v>
       </c>
       <c r="O9" t="n">
-        <v>478.0209264405675</v>
+        <v>478.0209264405674</v>
       </c>
       <c r="P9" t="n">
-        <v>383.6539365378626</v>
+        <v>383.6539365378625</v>
       </c>
       <c r="Q9" t="n">
-        <v>256.4624964168761</v>
+        <v>256.462496416876</v>
       </c>
       <c r="R9" t="n">
-        <v>124.7417227624141</v>
+        <v>124.741722762414</v>
       </c>
       <c r="S9" t="n">
-        <v>37.31853601997902</v>
+        <v>37.31853601997901</v>
       </c>
       <c r="T9" t="n">
-        <v>8.098166376000172</v>
+        <v>8.098166376000171</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1321789941675764</v>
+        <v>0.1321789941675763</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31677,7 +31677,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I10" t="n">
-        <v>50.65387972335772</v>
+        <v>50.6538797233577</v>
       </c>
       <c r="J10" t="n">
         <v>119.0856174753787</v>
@@ -31692,10 +31692,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N10" t="n">
-        <v>257.7559726067959</v>
+        <v>257.7559726067958</v>
       </c>
       <c r="O10" t="n">
-        <v>238.0793597154673</v>
+        <v>238.0793597154672</v>
       </c>
       <c r="P10" t="n">
         <v>203.7180217169137</v>
@@ -31704,16 +31704,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R10" t="n">
-        <v>75.73581895759587</v>
+        <v>75.73581895759585</v>
       </c>
       <c r="S10" t="n">
-        <v>29.35413767523479</v>
+        <v>29.35413767523478</v>
       </c>
       <c r="T10" t="n">
-        <v>7.196893431069562</v>
+        <v>7.196893431069561</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09187523529024987</v>
+        <v>0.09187523529024984</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31835,7 +31835,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
         <v>277.9958514420755</v>
@@ -31847,22 +31847,22 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N12" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>142.5962444444444</v>
+        <v>301.6445156724565</v>
       </c>
       <c r="P12" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q12" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R12" t="n">
-        <v>168.0123247135882</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
         <v>54.65449286742438</v>
@@ -32081,25 +32081,25 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O15" t="n">
-        <v>198.5607970756955</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214698</v>
+        <v>230.9747494877451</v>
       </c>
       <c r="Q15" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R15" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
         <v>54.65449286742438</v>
@@ -32309,19 +32309,19 @@
         <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M18" t="n">
-        <v>167.4835451665588</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
         <v>765.2790490071785</v>
@@ -32333,7 +32333,7 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>250.1723312270667</v>
       </c>
       <c r="R18" t="n">
         <v>145.679503963964</v>
@@ -32546,31 +32546,31 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J21" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N21" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>198.5607970756955</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
         <v>561.8765786214698</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.599612848529</v>
+        <v>316.2462973459355</v>
       </c>
       <c r="R21" t="n">
         <v>182.6892564418561</v>
@@ -32786,16 +32786,16 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K24" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473072</v>
+        <v>391.605194951448</v>
       </c>
       <c r="M24" t="n">
-        <v>208.6096528357818</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N24" t="n">
         <v>765.2790490071785</v>
@@ -32804,13 +32804,13 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q24" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R24" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742438</v>
@@ -33020,7 +33020,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
@@ -33029,10 +33029,10 @@
         <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>579.5299594447137</v>
       </c>
       <c r="M27" t="n">
-        <v>581.3243739860829</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N27" t="n">
         <v>765.2790490071785</v>
@@ -33257,7 +33257,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J30" t="n">
         <v>277.9958514420755</v>
@@ -33266,10 +33266,10 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M30" t="n">
-        <v>142.1340339220183</v>
+        <v>673.7140351260975</v>
       </c>
       <c r="N30" t="n">
         <v>765.2790490071785</v>
@@ -33278,7 +33278,7 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
-        <v>163.4402738502014</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
         <v>375.599612848529</v>
@@ -33500,7 +33500,7 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L33" t="n">
         <v>638.8832749473072</v>
@@ -33509,16 +33509,16 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>748.8168776781358</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>142.5962444444444</v>
+        <v>271.1474903386692</v>
       </c>
       <c r="P33" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
         <v>182.6892564418561</v>
@@ -33731,34 +33731,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>403.8524967138027</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.599612848529</v>
+        <v>140.7358547888808</v>
       </c>
       <c r="R36" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742438</v>
@@ -33968,10 +33968,10 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J39" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K39" t="n">
         <v>475.1391886422585</v>
@@ -33980,16 +33980,16 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>171.5999003578897</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>519.7862086120942</v>
       </c>
       <c r="O39" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P39" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q39" t="n">
         <v>375.599612848529</v>
@@ -34205,16 +34205,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J42" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>458.677017313216</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M42" t="n">
         <v>745.5466476862121</v>
@@ -34223,10 +34223,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>142.5962444444444</v>
+        <v>200.3460366764704</v>
       </c>
       <c r="P42" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q42" t="n">
         <v>375.599612848529</v>
@@ -34442,16 +34442,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
         <v>745.5466476862121</v>
@@ -34460,16 +34460,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>386.7287743289961</v>
+        <v>465.217062384076</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R45" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -34781,7 +34781,7 @@
         <v>234.0901411829315</v>
       </c>
       <c r="L3" t="n">
-        <v>169.8341429140948</v>
+        <v>376.787726052117</v>
       </c>
       <c r="M3" t="n">
         <v>492.1977686570552</v>
@@ -34790,7 +34790,7 @@
         <v>521.0904491015781</v>
       </c>
       <c r="O3" t="n">
-        <v>409.6094139574496</v>
+        <v>202.6558308194275</v>
       </c>
       <c r="P3" t="n">
         <v>311.5728506689202</v>
@@ -34939,22 +34939,22 @@
         <v>407.5425384040863</v>
       </c>
       <c r="L5" t="n">
-        <v>558.3972305517163</v>
+        <v>140.7360160012659</v>
       </c>
       <c r="M5" t="n">
         <v>638.0987989730422</v>
       </c>
       <c r="N5" t="n">
-        <v>196.2971847393761</v>
+        <v>416.4375971743975</v>
       </c>
       <c r="O5" t="n">
-        <v>245.6835659963015</v>
+        <v>552.6880856233105</v>
       </c>
       <c r="P5" t="n">
-        <v>433.6515619588832</v>
+        <v>111.8528537874005</v>
       </c>
       <c r="Q5" t="n">
-        <v>35.33749497130819</v>
+        <v>247.6524856312129</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35015,25 +35015,25 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>68.29072693268387</v>
+        <v>332.7559639452625</v>
       </c>
       <c r="L6" t="n">
         <v>509.4561008748672</v>
       </c>
       <c r="M6" t="n">
-        <v>420.3081880637848</v>
+        <v>181.3104407622271</v>
       </c>
       <c r="N6" t="n">
-        <v>640.5848321000383</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="O6" t="n">
-        <v>554.9858674269929</v>
+        <v>421.1328968118856</v>
       </c>
       <c r="P6" t="n">
-        <v>109.7875025528271</v>
+        <v>428.2502711927643</v>
       </c>
       <c r="Q6" t="n">
-        <v>233.0438950105733</v>
+        <v>22.96660727472423</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35170,31 +35170,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>137.6579754225037</v>
+        <v>137.6579754225036</v>
       </c>
       <c r="K8" t="n">
-        <v>257.5646495407338</v>
+        <v>257.5646495407337</v>
       </c>
       <c r="L8" t="n">
-        <v>356.8062301067509</v>
+        <v>356.8062301067507</v>
       </c>
       <c r="M8" t="n">
-        <v>429.0050109457278</v>
+        <v>429.0050109457276</v>
       </c>
       <c r="N8" t="n">
-        <v>440.6071730376315</v>
+        <v>440.6071730376314</v>
       </c>
       <c r="O8" t="n">
-        <v>402.5828984949728</v>
+        <v>402.5828984949726</v>
       </c>
       <c r="P8" t="n">
-        <v>308.745693963795</v>
+        <v>308.7456939637948</v>
       </c>
       <c r="Q8" t="n">
-        <v>183.1958181402557</v>
+        <v>183.1958181402556</v>
       </c>
       <c r="R8" t="n">
-        <v>20.29166330939907</v>
+        <v>20.29166330939901</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,28 +35249,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>62.98022089091745</v>
+        <v>62.98022089091739</v>
       </c>
       <c r="K9" t="n">
-        <v>186.5874962434848</v>
+        <v>200.8457282678135</v>
       </c>
       <c r="L9" t="n">
-        <v>297.6803606378502</v>
+        <v>297.6803606378501</v>
       </c>
       <c r="M9" t="n">
-        <v>366.9313322820406</v>
+        <v>366.9313322820404</v>
       </c>
       <c r="N9" t="n">
-        <v>391.197099592874</v>
+        <v>391.1970995928739</v>
       </c>
       <c r="O9" t="n">
-        <v>546.4575832202785</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="P9" t="n">
-        <v>568.1422977634695</v>
+        <v>249.6795291235322</v>
       </c>
       <c r="Q9" t="n">
-        <v>116.4807223308546</v>
+        <v>326.5580100667036</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35328,28 +35328,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>25.72643735870595</v>
+        <v>25.72643735870592</v>
       </c>
       <c r="K10" t="n">
-        <v>173.4247593423491</v>
+        <v>173.424759342349</v>
       </c>
       <c r="L10" t="n">
-        <v>278.011291583107</v>
+        <v>278.0112915831069</v>
       </c>
       <c r="M10" t="n">
         <v>303.6179906468033</v>
       </c>
       <c r="N10" t="n">
-        <v>301.8881449860245</v>
+        <v>301.8881449860244</v>
       </c>
       <c r="O10" t="n">
-        <v>262.664487629507</v>
+        <v>262.6644876295069</v>
       </c>
       <c r="P10" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q10" t="n">
-        <v>54.88175545805406</v>
+        <v>54.881755458054</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35483,7 +35483,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J12" t="n">
         <v>151.1582247754088</v>
@@ -35495,22 +35495,22 @@
         <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>159.048271228012</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q12" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R12" t="n">
-        <v>22.33282074962425</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35729,25 +35729,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>55.96455263125101</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071395</v>
+        <v>97.00034207341486</v>
       </c>
       <c r="Q15" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R15" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35817,7 +35817,7 @@
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060437</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35890,7 +35890,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902961</v>
       </c>
       <c r="N17" t="n">
         <v>751.8584478193516</v>
@@ -35957,19 +35957,19 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>25.34951124454049</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
         <v>633.9373369238452</v>
@@ -35981,7 +35981,7 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>110.1905571410452</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36194,31 +36194,31 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>55.96455263125101</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
         <v>427.9021712071395</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625075</v>
+        <v>176.264523259914</v>
       </c>
       <c r="R21" t="n">
         <v>37.00975247789211</v>
@@ -36370,10 +36370,10 @@
         <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683816</v>
       </c>
       <c r="Q23" t="n">
         <v>371.5675334924728</v>
@@ -36434,16 +36434,16 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.328895167433</v>
+        <v>253.0508151715738</v>
       </c>
       <c r="M24" t="n">
-        <v>66.47561891376348</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
         <v>633.9373369238452</v>
@@ -36452,13 +36452,13 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q24" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36601,7 +36601,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N26" t="n">
         <v>751.8584478193516</v>
@@ -36668,7 +36668,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
@@ -36677,10 +36677,10 @@
         <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>440.9755796648395</v>
       </c>
       <c r="M27" t="n">
-        <v>439.1903400640646</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
         <v>633.9373369238452</v>
@@ -36835,7 +36835,7 @@
         <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
-        <v>632.0799921462711</v>
+        <v>632.0799921462684</v>
       </c>
       <c r="M29" t="n">
         <v>735.3001107902948</v>
@@ -36905,7 +36905,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
@@ -36914,10 +36914,10 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>531.5800012040792</v>
       </c>
       <c r="N30" t="n">
         <v>633.9373369238452</v>
@@ -36926,7 +36926,7 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
-        <v>29.46586643587111</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>235.6178387625075</v>
@@ -37148,7 +37148,7 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
         <v>500.328895167433</v>
@@ -37157,16 +37157,16 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>617.4751655948025</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>128.5512458942248</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>37.00975247789211</v>
@@ -37236,7 +37236,7 @@
         <v>450.5570744930849</v>
       </c>
       <c r="N34" t="n">
-        <v>445.9107804819472</v>
+        <v>445.9107804819471</v>
       </c>
       <c r="O34" t="n">
         <v>397.5465471980852</v>
@@ -37379,34 +37379,34 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>272.5107846304694</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625075</v>
+        <v>0.7540807028592577</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37470,19 +37470,19 @@
         <v>418.6266618111712</v>
       </c>
       <c r="M37" t="n">
-        <v>450.5570744930848</v>
+        <v>450.5570744930849</v>
       </c>
       <c r="N37" t="n">
-        <v>445.9107804819471</v>
+        <v>445.9107804819472</v>
       </c>
       <c r="O37" t="n">
-        <v>397.5465471980851</v>
+        <v>397.5465471980852</v>
       </c>
       <c r="P37" t="n">
         <v>319.9164207986647</v>
       </c>
       <c r="Q37" t="n">
-        <v>144.686904791938</v>
+        <v>144.6869047919381</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37616,10 +37616,10 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>337.2977496678996</v>
@@ -37628,16 +37628,16 @@
         <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>29.46586643587134</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>388.4444965287609</v>
       </c>
       <c r="O39" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q39" t="n">
         <v>235.6178387625075</v>
@@ -37853,16 +37853,16 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>320.835578338857</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
@@ -37871,10 +37871,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>57.74979223202591</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q42" t="n">
         <v>235.6178387625075</v>
@@ -37956,7 +37956,7 @@
         <v>319.9164207986647</v>
       </c>
       <c r="Q43" t="n">
-        <v>144.686904791938</v>
+        <v>144.6869047919381</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38090,16 +38090,16 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
@@ -38108,16 +38108,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>244.1325298845517</v>
+        <v>322.6208179396315</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
